--- a/文档/怪物技能设计.xlsx
+++ b/文档/怪物技能设计.xlsx
@@ -1,243 +1,320 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="怪物技能" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>设计意图</t>
+  </si>
   <si>
     <t>高速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速而脆弱</t>
+  </si>
+  <si>
+    <t>要求玩家有高攻速、控制技能</t>
   </si>
   <si>
     <t>缓慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速而脆弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缓慢而顽强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本就是送</t>
   </si>
   <si>
     <t>精英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比普通怪物属性提高50%，掉落魔力也多50%</t>
+  </si>
+  <si>
+    <t>要求高dps</t>
   </si>
   <si>
     <t>望族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍的怪</t>
+  </si>
+  <si>
+    <t>要求玩家有范围攻击的塔</t>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%的概率击晕攻击者</t>
+  </si>
+  <si>
+    <t>克制高攻速塔</t>
   </si>
   <si>
     <t>躲闪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍的怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>50%的概率闪避攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20%的概率击晕攻击者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克制低攻速塔</t>
   </si>
   <si>
     <t>飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>只能被建造在高地的塔攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验迷宫造型</t>
+  </si>
+  <si>
+    <t>潜行</t>
+  </si>
+  <si>
+    <t>只有在靠近炮塔时才会被发现</t>
+  </si>
+  <si>
+    <t>克制远距离塔</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+  </si>
+  <si>
+    <t>受到攻击的时候会向前传送一小段</t>
+  </si>
+  <si>
+    <t>检验迷宫长度</t>
+  </si>
+  <si>
+    <t>敏捷的</t>
+  </si>
+  <si>
+    <t>只会受到50%范围伤害</t>
+  </si>
+  <si>
+    <t>克制范围攻击塔</t>
+  </si>
+  <si>
+    <t>守护者</t>
+  </si>
+  <si>
+    <t>为周围单位分担一部分伤害</t>
+  </si>
+  <si>
+    <t>要求高dps、范围攻击</t>
+  </si>
+  <si>
+    <t>治疗者</t>
+  </si>
+  <si>
+    <t>周期性为周围单位治疗</t>
+  </si>
+  <si>
+    <t>要求高dps、单点高攻击</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>周期性抵消一次伤害</t>
+  </si>
+  <si>
+    <t>怒吼</t>
+  </si>
+  <si>
+    <t>死亡时为周围单位增加移动速度</t>
+  </si>
+  <si>
+    <t>要求控制技能</t>
+  </si>
+  <si>
+    <t>母体/分裂</t>
+  </si>
+  <si>
+    <t>死亡时会刷新其他的怪</t>
+  </si>
+  <si>
+    <t>要求范围攻击的塔</t>
   </si>
   <si>
     <t>拾荒者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有更高的几率掉落原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>掉落更多的魔力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到攻击的时候会向前传送一小段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比普通怪物属性提高50%，掉落魔力也多50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只会受到50%范围伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计意图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求玩家有高攻速、控制技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本就是送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求玩家有范围攻击的塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克制高攻速塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克制低攻速塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克制远距离塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克制范围攻击塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验迷宫长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验迷宫造型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求高dps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为周围单位分担一部分伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求高dps、范围攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求高dps、单点高攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性抵消一次伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期性为周围单位治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有在靠近炮塔时才会被发现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求控制技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时为周围单位增加移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时会刷新其他的怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母体/分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求范围攻击的塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>血量达到20%以下会吸收伤害，吸收次数越多，能力越强</t>
+  </si>
+  <si>
+    <t>检验爆发/手操技能清除</t>
+  </si>
+  <si>
+    <t>反弹</t>
+  </si>
+  <si>
+    <t>会反弹N%受到的伤害</t>
+  </si>
+  <si>
+    <t>检验炮塔生命/手操技能清除</t>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>会散发一股毒气麻痹周围炮塔</t>
+  </si>
+  <si>
+    <t>检验拦截击杀/手操技能清除</t>
+  </si>
+  <si>
+    <t>自爆</t>
+  </si>
+  <si>
+    <t>死亡后会自爆，对周围炮塔造成一定伤害</t>
+  </si>
+  <si>
+    <t>纵火</t>
+  </si>
+  <si>
+    <t>沿路会随机投放火球，使炮塔进入燃烧状态（攻击减慢，持续掉血）</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>为友方单位提供群体治疗效果</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>血量减半会复制幻象，3秒后消失</t>
+  </si>
+  <si>
+    <t>检验炮塔长度</t>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+  </si>
+  <si>
+    <t>前方的尸体会转成骷髅兵</t>
+  </si>
+  <si>
+    <t>检验炮塔距离搭配</t>
+  </si>
+  <si>
+    <t>强韧</t>
+  </si>
+  <si>
+    <t>自身有很强恢复能力</t>
+  </si>
+  <si>
+    <t>检验持续输出</t>
+  </si>
+  <si>
+    <t>回光返照</t>
+  </si>
+  <si>
+    <t>低于20%血量会吸收伤害恢复为生命</t>
+  </si>
+  <si>
+    <t>检验爆发</t>
+  </si>
+  <si>
+    <t>抗性护甲</t>
+  </si>
+  <si>
+    <t>免疫特定攻击</t>
+  </si>
+  <si>
+    <t>检验阵容搭配</t>
+  </si>
+  <si>
+    <t>迅捷</t>
+  </si>
+  <si>
+    <t>闪避特定攻击</t>
+  </si>
+  <si>
+    <t>仇恨</t>
+  </si>
+  <si>
+    <t>受到攻击会发怒并攻击炮塔</t>
+  </si>
+  <si>
+    <t>检验阵容搭配（控制流、秒杀流）</t>
+  </si>
+  <si>
+    <t>静默诅咒</t>
+  </si>
+  <si>
+    <t>杀死该单位会受到诅咒，移除所有攻击效果N秒</t>
+  </si>
+  <si>
+    <t>检验炮塔数量</t>
+  </si>
+  <si>
+    <t>石化诅咒</t>
+  </si>
+  <si>
+    <t>杀死该单位会受到诅咒，石化N秒</t>
+  </si>
+  <si>
+    <t>贪婪</t>
+  </si>
+  <si>
+    <t>杀死该单位会爆出很多金币，点击拾取</t>
+  </si>
+  <si>
+    <t>福利玩法，参考切水果游戏的火龙果</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -246,20 +323,368 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,25 +692,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -575,240 +1295,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>